--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H2">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>6.703334220336964</v>
+        <v>10.35080137964889</v>
       </c>
       <c r="R2">
-        <v>6.703334220336964</v>
+        <v>93.15721241684001</v>
       </c>
       <c r="S2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="T2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H3">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>0.6498713710656083</v>
+        <v>1.23881694534</v>
       </c>
       <c r="R3">
-        <v>0.6498713710656083</v>
+        <v>11.14935250806</v>
       </c>
       <c r="S3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="T3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H4">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>0.7099269050946796</v>
+        <v>1.092096102088334</v>
       </c>
       <c r="R4">
-        <v>0.7099269050946796</v>
+        <v>6.552576612530001</v>
       </c>
       <c r="S4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="T4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
     </row>
   </sheetData>
